--- a/biology/Médecine/Artère_occipitale/Artère_occipitale.xlsx
+++ b/biology/Médecine/Artère_occipitale/Artère_occipitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_occipitale</t>
+          <t>Artère_occipitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère occipitale (Arteria occipitalis en latin) est une artère de la tête issue de l'artère carotide externe. Elle participe à la vascularisation de l'arrière du scalp et des muscles de la nuque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_occipitale</t>
+          <t>Artère_occipitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-L'artère occipitale naît à la face postérieure de l'artère carotide externe, en regard de l'artère faciale. Il arrive parfois qu'elle provienne de l'artère carotide interne, de l'artère thyroïdienne inférieure ou de l'artère pharyngienne ascendante[1]. On peut également observer un tronc commun aux artères occipitale et pharyngienne ascendante, provenant soit de la carotide externe, soit de la carotide interne[2].
-Trajet
-L'artère occipitale présente un premier segment ascendant, cervical, dirigé vers le haut, l'arrière et le dehors. Elle passe entre l'artère carotide interne en dedans et le ventre postérieur du muscle digastrique en dehors. L'artère occipitale donne à ce niveau plusieurs collatérales :
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère occipitale naît à la face postérieure de l'artère carotide externe, en regard de l'artère faciale. Il arrive parfois qu'elle provienne de l'artère carotide interne, de l'artère thyroïdienne inférieure ou de l'artère pharyngienne ascendante. On peut également observer un tronc commun aux artères occipitale et pharyngienne ascendante, provenant soit de la carotide externe, soit de la carotide interne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artère_occipitale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_occipitale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère occipitale présente un premier segment ascendant, cervical, dirigé vers le haut, l'arrière et le dehors. Elle passe entre l'artère carotide interne en dedans et le ventre postérieur du muscle digastrique en dehors. L'artère occipitale donne à ce niveau plusieurs collatérales :
 L'artère sterno-cléïdo-mastoïdienne supérieure est contournée par le nerf hypoglosse et assure la vascularisation du muscle sterno-cléïdo-mastoïdien.
 L'artère stylo-mastoïdienne peut également être une branche de l'artère occipitale. Elle accompagne le nerf facial dans le canal facial pour rejoindre ensuite la caisse du tympan. Cependant cette branche provient généralement de l'artère auriculaire postérieure.
 Plusieurs rameaux musculaires sont aussi présents en nombre variable et participent à l'apport de sang aux muscles digastrique, stylo-hyoïdien, splénius et longissimus de la tête.
@@ -525,8 +577,43 @@
 Une branche méningée entre dans le crâne par le foramen jugulaire et irrigue la dure-mère de la fosse postérieure du crâne.
 Une branche auriculaire donne des rameaux pour les téguments de la région mastoïdienne. Parmi ces rameaux, la branche mastoïdienne ou artère méningée postérieure est un vaisseau inconstant qui pénètre dans le cerveau par le foramen mastoïdien de l'os temporal pour vasculariser la dure-mère de cette région.
 Le troisième et dernier segment de l'artère occipitale (appelé segment occipital) remonte verticalement pour irriguer la face postérieure du scalp et le muscle occipito-frontal.
-Terminaison
-On observe deux branches principales de terminaison, latérale et médiale. Ces branches forment un réseau anastomotique avec les artères auriculaire postérieure, temporale superficielle ainsi qu'avec les rameaux de l'artère occipitale controlatérale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Artère_occipitale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_occipitale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On observe deux branches principales de terminaison, latérale et médiale. Ces branches forment un réseau anastomotique avec les artères auriculaire postérieure, temporale superficielle ainsi qu'avec les rameaux de l'artère occipitale controlatérale.
 </t>
         </is>
       </c>
